--- a/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/13.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/mapdatas/allmap/pos/13.xlsx
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CE18" sqref="CE18"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CR7" sqref="CR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3149,9 +3149,7 @@
       <c r="CB11" s="8"/>
       <c r="CC11" s="29"/>
       <c r="CD11" s="32"/>
-      <c r="CE11" s="7">
-        <v>1</v>
-      </c>
+      <c r="CE11" s="7"/>
       <c r="CF11" s="7"/>
       <c r="CG11" s="33"/>
       <c r="CH11" s="35"/>
@@ -3358,9 +3356,7 @@
       <c r="CB12" s="8"/>
       <c r="CC12" s="13"/>
       <c r="CD12" s="21"/>
-      <c r="CE12" s="66">
-        <v>1</v>
-      </c>
+      <c r="CE12" s="66"/>
       <c r="CF12" s="6"/>
       <c r="CG12" s="22"/>
       <c r="CH12" s="14"/>
@@ -3567,9 +3563,7 @@
       <c r="CB13" s="8"/>
       <c r="CC13" s="34"/>
       <c r="CD13" s="37"/>
-      <c r="CE13" s="76">
-        <v>1</v>
-      </c>
+      <c r="CE13" s="76"/>
       <c r="CF13" s="38"/>
       <c r="CG13" s="39"/>
       <c r="CH13" s="30"/>
@@ -3776,9 +3770,7 @@
       <c r="CB14" s="41"/>
       <c r="CC14" s="1"/>
       <c r="CD14" s="28"/>
-      <c r="CE14" s="77">
-        <v>1</v>
-      </c>
+      <c r="CE14" s="77"/>
       <c r="CF14" s="28"/>
       <c r="CG14" s="28"/>
       <c r="CH14" s="1"/>
@@ -3985,9 +3977,7 @@
       <c r="CB15" s="20"/>
       <c r="CC15" s="14"/>
       <c r="CD15" s="6"/>
-      <c r="CE15" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE15" s="63"/>
       <c r="CF15" s="1"/>
       <c r="CG15" s="1"/>
       <c r="CH15" s="1"/>
@@ -4194,9 +4184,7 @@
       <c r="CB16" s="22"/>
       <c r="CC16" s="14"/>
       <c r="CD16" s="6"/>
-      <c r="CE16" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE16" s="63"/>
       <c r="CF16" s="1"/>
       <c r="CG16" s="1"/>
       <c r="CH16" s="1"/>
@@ -4403,102 +4391,38 @@
       <c r="CB17" s="84"/>
       <c r="CC17" s="85"/>
       <c r="CD17" s="86"/>
-      <c r="CE17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CF17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CG17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CH17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CI17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CJ17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CK17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CL17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CM17" s="64">
-        <v>1</v>
-      </c>
-      <c r="CN17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CP17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CU17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CW17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CX17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CY17" s="1">
-        <v>1</v>
-      </c>
-      <c r="CZ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DG17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI17" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ17" s="63">
-        <v>1</v>
-      </c>
+      <c r="CE17" s="64"/>
+      <c r="CF17" s="64"/>
+      <c r="CG17" s="64"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="64"/>
+      <c r="CJ17" s="64"/>
+      <c r="CK17" s="64"/>
+      <c r="CL17" s="64"/>
+      <c r="CM17" s="64"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
+      <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
+      <c r="DE17" s="1"/>
+      <c r="DF17" s="1"/>
+      <c r="DG17" s="1"/>
+      <c r="DH17" s="1"/>
+      <c r="DI17" s="1"/>
+      <c r="DJ17" s="63"/>
       <c r="DK17" s="1"/>
       <c r="DL17" s="1"/>
       <c r="DM17" s="1"/>
@@ -4705,9 +4629,7 @@
       <c r="DG18" s="1"/>
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
-      <c r="DJ18" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ18" s="63"/>
       <c r="DK18" s="1"/>
       <c r="DL18" s="1"/>
       <c r="DM18" s="1"/>
@@ -4914,9 +4836,7 @@
       <c r="DG19" s="1"/>
       <c r="DH19" s="1"/>
       <c r="DI19" s="63"/>
-      <c r="DJ19" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ19" s="63"/>
       <c r="DK19" s="1"/>
       <c r="DL19" s="1"/>
       <c r="DM19" s="1"/>
@@ -5123,9 +5043,7 @@
       <c r="DG20" s="1"/>
       <c r="DH20" s="1"/>
       <c r="DI20" s="63"/>
-      <c r="DJ20" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ20" s="63"/>
       <c r="DK20" s="1"/>
       <c r="DL20" s="1"/>
       <c r="DM20" s="1"/>
@@ -5332,9 +5250,7 @@
       <c r="DG21" s="1"/>
       <c r="DH21" s="1"/>
       <c r="DI21" s="63"/>
-      <c r="DJ21" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ21" s="63"/>
       <c r="DK21" s="1"/>
       <c r="DL21" s="1"/>
       <c r="DM21" s="1"/>
@@ -5541,9 +5457,7 @@
       <c r="DG22" s="1"/>
       <c r="DH22" s="1"/>
       <c r="DI22" s="63"/>
-      <c r="DJ22" s="63">
-        <v>1</v>
-      </c>
+      <c r="DJ22" s="63"/>
       <c r="DK22" s="1"/>
       <c r="DL22" s="1"/>
       <c r="DM22" s="1"/>
@@ -5774,45 +5688,19 @@
       <c r="DQ23" s="86">
         <v>1</v>
       </c>
-      <c r="DR23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="81">
-        <v>1</v>
-      </c>
-      <c r="DT23" s="62">
-        <v>1</v>
-      </c>
-      <c r="DU23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DV23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DW23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DX23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DY23" s="63">
-        <v>1</v>
-      </c>
-      <c r="DZ23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EA23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EB23" s="63">
-        <v>1</v>
-      </c>
-      <c r="EC23" s="63">
-        <v>1</v>
-      </c>
-      <c r="ED23" s="63">
-        <v>1</v>
-      </c>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="81"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="63"/>
+      <c r="DV23" s="63"/>
+      <c r="DW23" s="63"/>
+      <c r="DX23" s="63"/>
+      <c r="DY23" s="63"/>
+      <c r="DZ23" s="63"/>
+      <c r="EA23" s="63"/>
+      <c r="EB23" s="63"/>
+      <c r="EC23" s="63"/>
+      <c r="ED23" s="63"/>
       <c r="EE23" s="1"/>
       <c r="EF23" s="1"/>
       <c r="EG23" s="1"/>
